--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1073118.717563021</v>
+        <v>1033155.434623827</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914456</v>
+        <v>426806.9758914465</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478709</v>
+        <v>8362709.488478712</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185.0333587736945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83.51289199636497</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>36.43923176655766</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>117.650282556389</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>93.39789742374319</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>202.2946864288972</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>8.227780754748551</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>18.67491542251844</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>324.0832253933006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>6.274224046931475</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1457,16 +1457,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>38.78966489179808</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>35.33191364804597</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4811043909671</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>13.08993799274022</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>265.5163616816608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>346.1198466929953</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1694,13 +1694,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>30.37004117374418</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>183.4401280146809</v>
+        <v>80.79258128802688</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>257.2326871850308</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.03144951510126</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>177.8382517141046</v>
+        <v>27.47589768952058</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>134.7307170396223</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>156.0900476688794</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>24.46873264966648</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>74.40768280668856</v>
       </c>
     </row>
     <row r="21">
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>74.15307578127776</v>
+        <v>73.903280940294</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>135.3671407057762</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>51.86979722705082</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>111.6321872928792</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2414,7 +2414,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
-        <v>157.7416325158958</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U24" t="n">
         <v>225.8957288909827</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>141.6059242355808</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>91.92951957764355</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0.3102587348934026</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>123.6039762133036</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>132.2037233045428</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.190112907409</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>205.9605143004152</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>104.4814346654897</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2961,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.25280406479364</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>141.605924235581</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>160.5492992507132</v>
+        <v>93.19314296876854</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>67.50465687964565</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.6675792510848</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>187.3286270063156</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>266.0060220548392</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>153.8452232861715</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>159.3388108552989</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>98.7691629849452</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>161.6577616909984</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>55.99412674159669</v>
+        <v>75.10986973630013</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>130.7203053781078</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3599,10 +3599,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.764854730051</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>59.19197445244117</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>182.6275281514782</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>210.1059113441171</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
@@ -3799,16 +3799,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.83762364393748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>73.64690839405421</v>
       </c>
       <c r="C42" t="n">
-        <v>56.22893659596764</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3836,10 +3836,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>71.25280406479409</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>100.7038651316543</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>280.7123958640487</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -4027,10 +4027,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>33.95750544190247</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4064,16 +4064,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>38.78966489179808</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4112,7 +4112,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8957288909827</v>
+        <v>124.5780538636987</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.55527039865777</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>146.3125801111237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.4227147053767</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C3" t="n">
-        <v>168.9696854242497</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4418,10 +4418,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4445,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>927.2498506959315</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>719.3983504903987</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>511.6380517254448</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>348.0024326625565</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>104.5536560184564</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>104.5536560184564</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4600,19 +4600,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418.5067695725487</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C6" t="n">
-        <v>418.5067695725487</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>869.7158449816027</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>869.7158449816027</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>869.7158449816027</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>869.7158449816027</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>626.2670683375027</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>626.2670683375027</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y6" t="n">
-        <v>418.5067695725487</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5264424227252</v>
+        <v>670.606730582354</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5264424227252</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D9" t="n">
-        <v>27.59203276147389</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E9" t="n">
-        <v>27.59203276147389</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>27.59203276147389</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>27.59203276147389</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>27.59203276147389</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>670.606730582354</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>670.606730582354</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>670.606730582354</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>670.606730582354</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>670.606730582354</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5264424227252</v>
+        <v>670.606730582354</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2440.987626628164</v>
+        <v>1228.095788048051</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.630833301597</v>
+        <v>859.1332711076393</v>
       </c>
       <c r="D11" t="n">
-        <v>1755.365134694847</v>
+        <v>859.1332711076393</v>
       </c>
       <c r="E11" t="n">
-        <v>1369.576882096602</v>
+        <v>473.3450185093951</v>
       </c>
       <c r="F11" t="n">
-        <v>958.5909773069948</v>
+        <v>473.3450185093951</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>55.1573525799688</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W11" t="n">
-        <v>2440.987626628164</v>
+        <v>1618.235120023863</v>
       </c>
       <c r="X11" t="n">
-        <v>2440.987626628164</v>
+        <v>1618.235120023863</v>
       </c>
       <c r="Y11" t="n">
-        <v>2440.987626628164</v>
+        <v>1228.095788048051</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E12" t="n">
-        <v>359.6156529128699</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H12" t="n">
         <v>114.9862139017798</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>515.9097814070539</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5229,22 +5229,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="U13" t="n">
-        <v>640.638169680758</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V13" t="n">
-        <v>640.638169680758</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1259.062774299538</v>
+        <v>1202.411677820835</v>
       </c>
       <c r="C14" t="n">
-        <v>890.1002573591268</v>
+        <v>1202.411677820835</v>
       </c>
       <c r="D14" t="n">
-        <v>890.1002573591268</v>
+        <v>1202.411677820835</v>
       </c>
       <c r="E14" t="n">
-        <v>621.901912226136</v>
+        <v>816.6234252225909</v>
       </c>
       <c r="F14" t="n">
-        <v>210.9160074365284</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T14" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U14" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V14" t="n">
-        <v>2371.897027894854</v>
+        <v>1928.646091352029</v>
       </c>
       <c r="W14" t="n">
-        <v>2019.12837262474</v>
+        <v>1575.877436081915</v>
       </c>
       <c r="X14" t="n">
-        <v>1645.66261436366</v>
+        <v>1202.411677820835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1645.66261436366</v>
+        <v>1202.411677820835</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>252.2625746284398</v>
       </c>
       <c r="G15" t="n">
         <v>221.5857653620315</v>
@@ -5357,52 +5357,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L15" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5457,28 +5457,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q16" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R16" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S16" t="n">
-        <v>234.1128111332511</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T16" t="n">
-        <v>48.81975253256327</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="U16" t="n">
-        <v>48.81975253256327</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="V16" t="n">
-        <v>48.81975253256327</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y16" t="n">
         <v>48.81975253256327</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>451.066096387847</v>
+        <v>1506.786837348606</v>
       </c>
       <c r="C17" t="n">
-        <v>451.066096387847</v>
+        <v>1137.824320408194</v>
       </c>
       <c r="D17" t="n">
-        <v>451.066096387847</v>
+        <v>1137.824320408194</v>
       </c>
       <c r="E17" t="n">
-        <v>451.066096387847</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>451.066096387847</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
-        <v>451.066096387847</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
-        <v>121.578792446807</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5527,7 +5527,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5542,25 +5542,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2152.282423226541</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U17" t="n">
-        <v>1898.502729238423</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V17" t="n">
-        <v>1567.439841894853</v>
+        <v>1859.55549261872</v>
       </c>
       <c r="W17" t="n">
-        <v>1214.671186624739</v>
+        <v>1506.786837348606</v>
       </c>
       <c r="X17" t="n">
-        <v>841.2054283636587</v>
+        <v>1506.786837348606</v>
       </c>
       <c r="Y17" t="n">
-        <v>451.066096387847</v>
+        <v>1506.786837348606</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2241.626303475332</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.991705784318</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.839597552575</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.602240824373</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>335.058361281315</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5700,25 +5700,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.638169680758</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="T19" t="n">
-        <v>412.9009368039365</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="U19" t="n">
-        <v>412.9009368039365</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="V19" t="n">
-        <v>412.9009368039365</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="W19" t="n">
-        <v>412.9009368039365</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="X19" t="n">
-        <v>184.9113859059191</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.9113859059191</v>
+        <v>482.9714548637081</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1572.822125467577</v>
+        <v>417.782269472975</v>
       </c>
       <c r="C20" t="n">
-        <v>1203.859608527166</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D20" t="n">
-        <v>845.5939099204151</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E20" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F20" t="n">
         <v>48.81975253256327</v>
@@ -5782,22 +5782,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U20" t="n">
-        <v>1946.287883728657</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V20" t="n">
-        <v>1946.287883728657</v>
+        <v>1605.775798630602</v>
       </c>
       <c r="W20" t="n">
-        <v>1946.287883728657</v>
+        <v>1253.007143360488</v>
       </c>
       <c r="X20" t="n">
-        <v>1572.822125467577</v>
+        <v>879.5413850994084</v>
       </c>
       <c r="Y20" t="n">
-        <v>1572.822125467577</v>
+        <v>804.3821095370968</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>2213.250393751342</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>1924.071306228734</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.169209479969</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W22" t="n">
-        <v>1849.169209479969</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1246.955840192009</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="C23" t="n">
-        <v>877.9933232515971</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D23" t="n">
-        <v>877.9933232515971</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5992,10 +5992,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U23" t="n">
-        <v>2304.253141066773</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V23" t="n">
-        <v>1973.190253723203</v>
+        <v>2319.503293322075</v>
       </c>
       <c r="W23" t="n">
-        <v>1620.421598453089</v>
+        <v>1966.734638051961</v>
       </c>
       <c r="X23" t="n">
-        <v>1246.955840192009</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="Y23" t="n">
-        <v>1246.955840192009</v>
+        <v>1593.268879790881</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>922.6086434646021</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C24" t="n">
-        <v>748.1556141834751</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D24" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,52 +6068,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2383.337730684675</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T24" t="n">
-        <v>2224.002748345386</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U24" t="n">
-        <v>1995.825244415101</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V24" t="n">
-        <v>1760.673136183358</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W24" t="n">
-        <v>1506.435779455157</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X24" t="n">
-        <v>1298.584279249624</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y24" t="n">
-        <v>1090.82398048467</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>191.8560396392105</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V25" t="n">
-        <v>640.638169680758</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W25" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.8560396392105</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1698.079639382237</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.117122441826</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D26" t="n">
-        <v>970.8514238350754</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E26" t="n">
-        <v>970.8514238350754</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>559.8655190454679</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>141.6778531160416</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6229,10 +6229,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V26" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.218971358049</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.218971358049</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.079639382237</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6305,16 +6305,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N27" t="n">
         <v>1714.953720827627</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.9199677091171</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C28" t="n">
-        <v>217.9199677091171</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="D28" t="n">
-        <v>217.9199677091171</v>
+        <v>321.5853473405156</v>
       </c>
       <c r="E28" t="n">
-        <v>217.9199677091171</v>
+        <v>173.6722537581225</v>
       </c>
       <c r="F28" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>351.4590821581503</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>351.4590821581503</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>217.9199677091171</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X28" t="n">
-        <v>217.9199677091171</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.9199677091171</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>796.4947224030295</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="C29" t="n">
-        <v>796.4947224030295</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D29" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E29" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2240.391863341916</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2240.391863341916</v>
+        <v>2232.946703092391</v>
       </c>
       <c r="U29" t="n">
-        <v>2240.391863341916</v>
+        <v>1979.167009104273</v>
       </c>
       <c r="V29" t="n">
-        <v>1909.328975998345</v>
+        <v>1979.167009104273</v>
       </c>
       <c r="W29" t="n">
-        <v>1556.560320728231</v>
+        <v>1626.398353834159</v>
       </c>
       <c r="X29" t="n">
-        <v>1183.094562467151</v>
+        <v>1626.398353834159</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.094562467151</v>
+        <v>1236.259021858348</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
         <v>48.81975253256327</v>
@@ -6542,25 +6542,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6572,22 +6572,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="V31" t="n">
-        <v>640.638169680758</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="W31" t="n">
-        <v>640.638169680758</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="X31" t="n">
-        <v>640.638169680758</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.32352461901</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.361007678598</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="D32" t="n">
-        <v>764.0953090718475</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3070564736033</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F32" t="n">
-        <v>378.3070564736033</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G32" t="n">
         <v>378.3070564736033</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2040.094374027286</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U32" t="n">
-        <v>1877.923364683131</v>
+        <v>2277.762540047614</v>
       </c>
       <c r="V32" t="n">
-        <v>1877.923364683131</v>
+        <v>1946.699652704043</v>
       </c>
       <c r="W32" t="n">
-        <v>1877.923364683131</v>
+        <v>1946.699652704043</v>
       </c>
       <c r="X32" t="n">
-        <v>1877.923364683131</v>
+        <v>1573.233894442963</v>
       </c>
       <c r="Y32" t="n">
-        <v>1877.923364683131</v>
+        <v>1183.094562467151</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.7751048338188</v>
+        <v>950.3620754742192</v>
       </c>
       <c r="C33" t="n">
-        <v>814.3220755526918</v>
+        <v>775.9090461930922</v>
       </c>
       <c r="D33" t="n">
-        <v>665.3876658914405</v>
+        <v>626.9746365318409</v>
       </c>
       <c r="E33" t="n">
-        <v>506.150210885985</v>
+        <v>467.7371815263854</v>
       </c>
       <c r="F33" t="n">
-        <v>359.6156529128699</v>
+        <v>321.2026235532704</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>183.172736002432</v>
       </c>
       <c r="H33" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
         <v>112.9860412505444</v>
@@ -6785,16 +6785,16 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.002248079783</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O33" t="n">
-        <v>2158.207869599012</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P33" t="n">
         <v>2440.987626628164</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.991705784318</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.839597552575</v>
+        <v>1788.426568192976</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.602240824373</v>
+        <v>1534.189211464774</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.750740618841</v>
+        <v>1326.337711259241</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.990441853887</v>
+        <v>1118.577412494287</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>196.7328461149564</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="C34" t="n">
-        <v>196.7328461149564</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="D34" t="n">
-        <v>196.7328461149564</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>451.4173343208432</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V34" t="n">
-        <v>196.7328461149564</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W34" t="n">
-        <v>196.7328461149564</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X34" t="n">
-        <v>196.7328461149564</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.7328461149564</v>
+        <v>123.2314487457803</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>877.9933232515971</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="C35" t="n">
-        <v>877.9933232515971</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="D35" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6940,10 +6940,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V35" t="n">
-        <v>1386.161193962289</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W35" t="n">
-        <v>1033.392538692174</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="X35" t="n">
-        <v>877.9933232515971</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="Y35" t="n">
-        <v>877.9933232515971</v>
+        <v>1834.439277369932</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T36" t="n">
-        <v>2222.939999577549</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2052.041707807631</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C37" t="n">
-        <v>2052.041707807631</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D37" t="n">
-        <v>1901.925068395296</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E37" t="n">
-        <v>1901.925068395296</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F37" t="n">
-        <v>1901.925068395296</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G37" t="n">
-        <v>1901.925068395296</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H37" t="n">
-        <v>1901.925068395296</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I37" t="n">
-        <v>1901.925068395296</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>2151.808539105556</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V37" t="n">
-        <v>2052.041707807631</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W37" t="n">
-        <v>2052.041707807631</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="X37" t="n">
-        <v>2052.041707807631</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="Y37" t="n">
-        <v>2052.041707807631</v>
+        <v>188.1684137834047</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.0074184619895</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="C38" t="n">
-        <v>467.0074184619895</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="D38" t="n">
-        <v>467.0074184619895</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="E38" t="n">
-        <v>467.0074184619895</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697323</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977595</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540051</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U38" t="n">
-        <v>1914.444051312566</v>
+        <v>2145.504466670658</v>
       </c>
       <c r="V38" t="n">
-        <v>1583.381163968995</v>
+        <v>2145.504466670658</v>
       </c>
       <c r="W38" t="n">
-        <v>1230.612508698881</v>
+        <v>2145.504466670658</v>
       </c>
       <c r="X38" t="n">
-        <v>857.1467504378013</v>
+        <v>2145.504466670658</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.0074184619895</v>
+        <v>1755.365134694847</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339194</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593126</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2261.353028937149</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T39" t="n">
-        <v>2061.991705784318</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U39" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="C40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="D40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="E40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="F40" t="n">
-        <v>1849.169209479969</v>
+        <v>277.7098408934012</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479969</v>
+        <v>108.6096257168473</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>2288.325948343915</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>2288.325948343915</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T40" t="n">
-        <v>2103.853697685856</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U40" t="n">
-        <v>2103.853697685856</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y40" t="n">
-        <v>1849.169209479969</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>569.181706043279</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="C41" t="n">
-        <v>569.181706043279</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="D41" t="n">
-        <v>210.9160074365284</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9160074365284</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F41" t="n">
-        <v>210.9160074365284</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H41" t="n">
         <v>210.9160074365284</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U41" t="n">
-        <v>1717.224081305859</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V41" t="n">
-        <v>1386.161193962289</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W41" t="n">
-        <v>1033.392538692174</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X41" t="n">
-        <v>659.9267804310946</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="Y41" t="n">
-        <v>569.181706043279</v>
+        <v>1967.593327971733</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C42" t="n">
-        <v>665.3876658914405</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
         <v>2283.899498973758</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2440.987626628164</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="C43" t="n">
-        <v>2440.987626628164</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="D43" t="n">
-        <v>2440.987626628164</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="E43" t="n">
-        <v>2440.987626628164</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="F43" t="n">
-        <v>2369.015097269786</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="G43" t="n">
-        <v>2199.914882093232</v>
+        <v>289.8894896739646</v>
       </c>
       <c r="H43" t="n">
-        <v>2041.273729646137</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I43" t="n">
-        <v>1901.925068395295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.692097593841</v>
+        <v>1727.842580703353</v>
       </c>
       <c r="C44" t="n">
-        <v>852.7295806534291</v>
+        <v>1727.842580703353</v>
       </c>
       <c r="D44" t="n">
-        <v>494.4638820466786</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="E44" t="n">
-        <v>494.4638820466786</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F44" t="n">
-        <v>494.4638820466786</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G44" t="n">
-        <v>494.4638820466786</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H44" t="n">
         <v>210.9160074365284</v>
@@ -7648,19 +7648,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697315</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2337.596517347478</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2117.981912679164</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894854</v>
+        <v>2117.981912679164</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.897027894854</v>
+        <v>2117.981912679164</v>
       </c>
       <c r="W44" t="n">
-        <v>2371.897027894854</v>
+        <v>2117.981912679164</v>
       </c>
       <c r="X44" t="n">
-        <v>1998.431269633774</v>
+        <v>2117.981912679164</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.291937657963</v>
+        <v>1727.842580703353</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E45" t="n">
-        <v>359.6156529128699</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H45" t="n">
         <v>114.9862139017798</v>
@@ -7727,52 +7727,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>524.4742137386056</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C46" t="n">
-        <v>524.4742137386056</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D46" t="n">
-        <v>524.4742137386056</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E46" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F46" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G46" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7827,31 +7827,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q46" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>524.4742137386056</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>524.4742137386056</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T46" t="n">
-        <v>524.4742137386056</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="U46" t="n">
-        <v>524.4742137386056</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="V46" t="n">
-        <v>524.4742137386056</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W46" t="n">
-        <v>524.4742137386056</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X46" t="n">
-        <v>524.4742137386056</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y46" t="n">
-        <v>524.4742137386056</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K15" t="n">
-        <v>233.1030882730269</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>128.4257434817937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185861</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K24" t="n">
-        <v>74.42821185443506</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.9802256040019</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725696</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>275.6680385918564</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>287.1006199003857</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.40241131725696</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194304</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>193.2401765302593</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>41.18966637770694</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.9182068546981</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>118.8554155636029</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>101.317675027284</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>21.93994363196417</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
         <v>52.22830032617343</v>
@@ -23469,16 +23469,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>212.3699225553131</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>116.4140083906009</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>60.7561990487161</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
@@ -23554,7 +23554,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>106.2795475015858</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>42.01973253337238</v>
+        <v>144.6672792600264</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>124.6976828872309</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>88.44384283982424</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>48.05747717687808</v>
+        <v>198.4198312014621</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.10126314231499</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23910,7 +23910,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23940,10 +23940,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>57.78794980767279</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
         <v>286.2872966473816</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>226.7731643985697</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>311.830255849365</v>
       </c>
     </row>
     <row r="21">
@@ -24180,19 +24180,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>177.9845675425502</v>
+        <v>178.234362383534</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24262,10 +24262,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>115.87475634246</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>275.8824612430841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>39.6260774054069</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>25.64089686304706</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24420,19 +24420,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>234.262911323986</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24502,10 +24502,10 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>348.9307099825196</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>21.81707180962766</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24657,13 +24657,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>154.3192750320482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>49.27574854582917</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>11.45794432121531</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>92.88627525581298</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>74.16824395813761</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>72.27207324097114</v>
       </c>
       <c r="T31" t="n">
         <v>225.4598605480533</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>90.69259779752304</v>
+        <v>158.0487540794677</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>38.02889906600352</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>71.75346877184644</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25131,16 +25131,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>98.958669641066</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>99.26686971616834</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>215.8858773922975</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>66.55691803568379</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,10 +25332,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>153.3684803388828</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>124.8652366455926</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>195.2477703066396</v>
+        <v>176.1320273119361</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
-        <v>38.02889906600376</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>97.86276647018312</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>42.83233239657511</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>144.5771302765658</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.4003150121161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>92.88627525581313</v>
       </c>
       <c r="C42" t="n">
-        <v>116.4795623923481</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>74.16824395813715</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>56.35087579096998</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>45.48003503758088</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>145.5083560113357</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25952,16 +25952,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>118.8554155636029</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>101.3176750272839</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>73.5797911027486</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>79.14728043692963</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693892.0830157495</v>
+        <v>693892.0830157497</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693892.0830157497</v>
+        <v>693892.0830157496</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693892.0830157496</v>
+        <v>693892.0830157495</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693892.0830157493</v>
+        <v>693892.0830157497</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693892.0830157496</v>
+        <v>693892.0830157497</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693892.0830157496</v>
+        <v>693892.0830157498</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693892.0830157498</v>
+        <v>693892.0830157496</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693892.0830157495</v>
+        <v>693892.0830157497</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
@@ -26325,22 +26325,22 @@
         <v>325370.8721489956</v>
       </c>
       <c r="F2" t="n">
-        <v>325370.8721489955</v>
+        <v>325370.8721489957</v>
       </c>
       <c r="G2" t="n">
-        <v>325370.8721489958</v>
+        <v>325370.8721489956</v>
       </c>
       <c r="H2" t="n">
         <v>325370.8721489955</v>
       </c>
       <c r="I2" t="n">
+        <v>325370.8721489957</v>
+      </c>
+      <c r="J2" t="n">
         <v>325370.8721489956</v>
       </c>
-      <c r="J2" t="n">
-        <v>325370.8721489955</v>
-      </c>
       <c r="K2" t="n">
-        <v>325370.8721489956</v>
+        <v>325370.8721489953</v>
       </c>
       <c r="L2" t="n">
         <v>325370.8721489957</v>
@@ -26349,13 +26349,13 @@
         <v>325370.8721489956</v>
       </c>
       <c r="N2" t="n">
-        <v>325370.8721489955</v>
+        <v>325370.8721489956</v>
       </c>
       <c r="O2" t="n">
         <v>325370.8721489955</v>
       </c>
       <c r="P2" t="n">
-        <v>325370.8721489957</v>
+        <v>325370.8721489956</v>
       </c>
     </row>
     <row r="3">
@@ -26432,34 +26432,34 @@
         <v>70728.28734025169</v>
       </c>
       <c r="G4" t="n">
+        <v>70728.28734025169</v>
+      </c>
+      <c r="H4" t="n">
         <v>70728.2873402517</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>70728.28734025169</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70728.2873402517</v>
       </c>
       <c r="J4" t="n">
         <v>70728.2873402517</v>
       </c>
       <c r="K4" t="n">
-        <v>70728.2873402517</v>
+        <v>70728.28734025169</v>
       </c>
       <c r="L4" t="n">
         <v>70728.2873402517</v>
       </c>
       <c r="M4" t="n">
+        <v>70728.28734025169</v>
+      </c>
+      <c r="N4" t="n">
         <v>70728.2873402517</v>
-      </c>
-      <c r="N4" t="n">
-        <v>70728.28734025169</v>
       </c>
       <c r="O4" t="n">
         <v>70728.28734025169</v>
       </c>
       <c r="P4" t="n">
-        <v>70728.28734025169</v>
+        <v>70728.28734025167</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17508.67291798961</v>
+        <v>17508.67291798956</v>
       </c>
       <c r="C6" t="n">
         <v>98278.10444953735</v>
@@ -26530,40 +26530,40 @@
         <v>98278.10444953741</v>
       </c>
       <c r="E6" t="n">
-        <v>-158928.7523443746</v>
+        <v>-165897.6769181068</v>
       </c>
       <c r="F6" t="n">
-        <v>210506.5467884054</v>
+        <v>203537.6222146733</v>
       </c>
       <c r="G6" t="n">
-        <v>210506.5467884057</v>
+        <v>203537.6222146733</v>
       </c>
       <c r="H6" t="n">
-        <v>210506.5467884054</v>
+        <v>203537.6222146731</v>
       </c>
       <c r="I6" t="n">
-        <v>210506.5467884055</v>
+        <v>203537.6222146733</v>
       </c>
       <c r="J6" t="n">
-        <v>147446.6041892991</v>
+        <v>140477.679615567</v>
       </c>
       <c r="K6" t="n">
-        <v>210506.5467884055</v>
+        <v>203537.622214673</v>
       </c>
       <c r="L6" t="n">
-        <v>210506.5467884056</v>
+        <v>203537.6222146733</v>
       </c>
       <c r="M6" t="n">
-        <v>118492.3015073124</v>
+        <v>111523.3769335802</v>
       </c>
       <c r="N6" t="n">
-        <v>210506.5467884054</v>
+        <v>203537.6222146733</v>
       </c>
       <c r="O6" t="n">
-        <v>210506.5467884054</v>
+        <v>203537.6222146731</v>
       </c>
       <c r="P6" t="n">
-        <v>210506.5467884056</v>
+        <v>203537.6222146732</v>
       </c>
     </row>
   </sheetData>
@@ -26819,7 +26819,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>221.8426869680169</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>255.9619101194022</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27517,16 +27517,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>215.2557513943619</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>88.0324132209154</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.64501259656927</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>126.0561017912447</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>78.28527368009463</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>203.6756636163529</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>204.5813593128142</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27940,22 +27940,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>81.16885209666653</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>181.4898132723032</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P40" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>207.3158823613949</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009465</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>126.9612417926721</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009465</v>
@@ -36214,13 +36214,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077443</v>
       </c>
       <c r="P21" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>48.64100594280298</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>497.1177477436266</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>309.3596570595964</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37876,7 +37876,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
         <v>158.6748764185921</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471535</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38034,7 +38034,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P44" t="n">
-        <v>277.0684912329588</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
         <v>130.0651205780292</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38113,10 +38113,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1033155.434623827</v>
+        <v>1068474.189949594</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>83.51289199636497</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9.894394903258249</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>117.650282556389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.16776090941369</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.00246782997241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>117.8074216906837</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1232,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>18.67491542251844</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>109.4220735607106</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>165.6256417767436</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>6.274224046931475</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>35.33191364804597</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>13.08993799274022</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>150.7617616219096</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>346.1198466929953</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.81601513946999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1694,13 +1694,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>17.79417311172712</v>
       </c>
       <c r="G15" t="n">
-        <v>30.37004117374418</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.003619501496819</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>80.79258128802688</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>257.2326871850308</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>66.87336535474924</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1979,7 +1979,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>27.47589768952058</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.63446806333818</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>156.0900476688794</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>164.5799073613657</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>74.40768280668856</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.02127570389403</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V22" t="n">
-        <v>73.903280940294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0.267104777481951</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>51.86979722705082</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>111.6321872928792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>3.722778175975543</v>
       </c>
       <c r="G24" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>121.8423286676189</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3102587348934026</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,7 +2651,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8957288909827</v>
+        <v>133.0094536351697</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>123.6039762133036</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>121.5742258441889</v>
       </c>
       <c r="T29" t="n">
-        <v>205.9605143004152</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8957288909827</v>
+        <v>186.2696514855755</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.141326929176263</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>141.605924235581</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>254.5326664076937</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>93.19314296876854</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4431349879765</v>
       </c>
       <c r="G33" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>67.50465687964565</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.6675792510848</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>266.0060220548392</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>384.1474754753069</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.262864575842432</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>73.91737409206867</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>161.6577616909984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>91.49592982525456</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>75.10986973630013</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>130.7203053781078</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3590,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>121.8322021836414</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>59.19197445244117</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>134.1018826670225</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>210.1059113441171</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>120.3052187697026</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.64690839405421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>158.8087079051065</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>100.7038651316543</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.96458348310414</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>33.95750544190247</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>317.4161357862135</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>109.5876032785227</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,7 +4073,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>124.5780538636987</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>141.8557190765649</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>146.3125801111237</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>366.1018663125844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E2" t="n">
-        <v>366.1018663125844</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>359.156365563381</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>115.7075889192809</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.7661011803829</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C3" t="n">
-        <v>158.7661011803829</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D3" t="n">
-        <v>158.7661011803829</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.7661011803829</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="4">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="V5" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="W5" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="X5" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="Y5" t="n">
         <v>348.0024326625565</v>
-      </c>
-      <c r="V5" t="n">
-        <v>104.5536560184564</v>
-      </c>
-      <c r="W5" t="n">
-        <v>104.5536560184564</v>
-      </c>
-      <c r="X5" t="n">
-        <v>104.5536560184564</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.0600686093459</v>
+        <v>845.059759863481</v>
       </c>
       <c r="C6" t="n">
-        <v>259.0600686093459</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D6" t="n">
-        <v>259.0600686093459</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E6" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>845.059759863481</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>845.059759863481</v>
       </c>
       <c r="X6" t="n">
-        <v>259.0600686093459</v>
+        <v>845.059759863481</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.0600686093459</v>
+        <v>845.059759863481</v>
       </c>
     </row>
     <row r="7">
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>509.8046290289238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>509.8046290289238</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.3558523848238</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>670.606730582354</v>
+        <v>752.3602790325011</v>
       </c>
       <c r="C9" t="n">
-        <v>670.606730582354</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D9" t="n">
-        <v>521.6723209211027</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>670.606730582354</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>670.606730582354</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>670.606730582354</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>670.606730582354</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>670.606730582354</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.606730582354</v>
+        <v>752.3602790325011</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.095788048051</v>
+        <v>1431.080203907158</v>
       </c>
       <c r="C11" t="n">
-        <v>859.1332711076393</v>
+        <v>1431.080203907158</v>
       </c>
       <c r="D11" t="n">
-        <v>859.1332711076393</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E11" t="n">
-        <v>473.3450185093951</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F11" t="n">
-        <v>473.3450185093951</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G11" t="n">
-        <v>55.1573525799688</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5068,25 +5068,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V11" t="n">
-        <v>1971.003775293977</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W11" t="n">
-        <v>1618.235120023863</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="X11" t="n">
-        <v>1618.235120023863</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="Y11" t="n">
-        <v>1228.095788048051</v>
+        <v>1431.080203907158</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>297.2095735395878</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>150.6750155664728</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D13" t="n">
         <v>48.81975253256327</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V13" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1202.411677820835</v>
+        <v>854.6300297869711</v>
       </c>
       <c r="C14" t="n">
-        <v>1202.411677820835</v>
+        <v>854.6300297869711</v>
       </c>
       <c r="D14" t="n">
-        <v>1202.411677820835</v>
+        <v>854.6300297869711</v>
       </c>
       <c r="E14" t="n">
-        <v>816.6234252225909</v>
+        <v>468.8417771887269</v>
       </c>
       <c r="F14" t="n">
-        <v>467.0074184619895</v>
+        <v>468.8417771887269</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256327</v>
+        <v>50.65411125930063</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256327</v>
+        <v>50.65411125930063</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2259.7089786956</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2259.7089786956</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>1928.646091352029</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W14" t="n">
-        <v>1575.877436081915</v>
+        <v>1618.235120023863</v>
       </c>
       <c r="X14" t="n">
-        <v>1202.411677820835</v>
+        <v>1244.769361762783</v>
       </c>
       <c r="Y14" t="n">
-        <v>1202.411677820835</v>
+        <v>854.6300297869711</v>
       </c>
     </row>
     <row r="15">
@@ -5342,10 +5342,10 @@
         <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>398.7971326015548</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>252.2625746284398</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G15" t="n">
         <v>221.5857653620315</v>
@@ -5357,25 +5357,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478935</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>203.8072092477815</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>203.8072092477815</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>203.8072092477815</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>55.89411566538834</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>55.89411566538834</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>55.89411566538834</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256327</v>
+        <v>55.89411566538834</v>
       </c>
       <c r="I16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T16" t="n">
-        <v>559.0295017130541</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U16" t="n">
-        <v>559.0295017130541</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V16" t="n">
-        <v>559.0295017130541</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W16" t="n">
-        <v>269.6123316760934</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X16" t="n">
-        <v>269.6123316760934</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>203.8072092477815</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1506.786837348606</v>
+        <v>1516.521176810373</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.824320408194</v>
+        <v>1147.558659869961</v>
       </c>
       <c r="D17" t="n">
-        <v>1137.824320408194</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="E17" t="n">
-        <v>877.9933232515971</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5515,19 +5515,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5545,22 +5545,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2190.61837996229</v>
+        <v>2123.069526068604</v>
       </c>
       <c r="U17" t="n">
-        <v>2190.61837996229</v>
+        <v>1869.289832080487</v>
       </c>
       <c r="V17" t="n">
-        <v>1859.55549261872</v>
+        <v>1869.289832080487</v>
       </c>
       <c r="W17" t="n">
-        <v>1506.786837348606</v>
+        <v>1516.521176810373</v>
       </c>
       <c r="X17" t="n">
-        <v>1506.786837348606</v>
+        <v>1516.521176810373</v>
       </c>
       <c r="Y17" t="n">
-        <v>1506.786837348606</v>
+        <v>1516.521176810373</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F18" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
         <v>48.81975253256327</v>
@@ -5597,22 +5597,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N18" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5627,19 +5627,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>482.9714548637081</v>
+        <v>259.986940498492</v>
       </c>
       <c r="C19" t="n">
-        <v>482.9714548637081</v>
+        <v>259.986940498492</v>
       </c>
       <c r="D19" t="n">
-        <v>482.9714548637081</v>
+        <v>259.986940498492</v>
       </c>
       <c r="E19" t="n">
-        <v>335.058361281315</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S19" t="n">
-        <v>482.9714548637081</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T19" t="n">
-        <v>482.9714548637081</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U19" t="n">
-        <v>482.9714548637081</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V19" t="n">
-        <v>482.9714548637081</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W19" t="n">
-        <v>482.9714548637081</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X19" t="n">
-        <v>482.9714548637081</v>
+        <v>259.986940498492</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.9714548637081</v>
+        <v>259.986940498492</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>417.782269472975</v>
+        <v>600.8503357988536</v>
       </c>
       <c r="C20" t="n">
-        <v>48.81975253256327</v>
+        <v>600.8503357988536</v>
       </c>
       <c r="D20" t="n">
-        <v>48.81975253256327</v>
+        <v>600.8503357988536</v>
       </c>
       <c r="E20" t="n">
-        <v>48.81975253256327</v>
+        <v>215.0620832006094</v>
       </c>
       <c r="F20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5782,22 +5782,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U20" t="n">
-        <v>1936.838685974173</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V20" t="n">
-        <v>1605.775798630602</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W20" t="n">
-        <v>1253.007143360488</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="X20" t="n">
-        <v>879.5413850994084</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="Y20" t="n">
-        <v>804.3821095370968</v>
+        <v>600.8503357988536</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>979.1957906402527</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>804.7427613591257</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>655.8083516978744</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960993</v>
+        <v>496.5708966924189</v>
       </c>
       <c r="F21" t="n">
-        <v>93.02511962298431</v>
+        <v>350.0363387193039</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256327</v>
+        <v>212.0064511684655</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>105.4068997082138</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
         <v>2283.899498973758</v>
@@ -5855,28 +5855,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1817.260283359009</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1563.022926630807</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1355.171426425275</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>1147.411127660321</v>
       </c>
     </row>
     <row r="22">
@@ -5919,37 +5919,37 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581503</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V22" t="n">
-        <v>276.8093034305806</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W22" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X22" t="n">
         <v>48.81975253256327</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1593.268879790881</v>
+        <v>1284.727065388101</v>
       </c>
       <c r="C23" t="n">
-        <v>1593.268879790881</v>
+        <v>1284.727065388101</v>
       </c>
       <c r="D23" t="n">
-        <v>1593.268879790881</v>
+        <v>926.4613667813501</v>
       </c>
       <c r="E23" t="n">
-        <v>1207.480627192637</v>
+        <v>540.6731141831058</v>
       </c>
       <c r="F23" t="n">
-        <v>796.4947224030295</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T23" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.897027894854</v>
+        <v>2005.929284707483</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.503293322075</v>
+        <v>1674.866397363912</v>
       </c>
       <c r="W23" t="n">
-        <v>1966.734638051961</v>
+        <v>1674.866397363912</v>
       </c>
       <c r="X23" t="n">
-        <v>1593.268879790881</v>
+        <v>1674.866397363912</v>
       </c>
       <c r="Y23" t="n">
-        <v>1593.268879790881</v>
+        <v>1284.727065388101</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>779.8344674874215</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C24" t="n">
-        <v>605.3814382062945</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D24" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E24" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F24" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K24" t="n">
         <v>285.1110033225004</v>
@@ -6095,10 +6095,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2280.589895521037</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T24" t="n">
-        <v>2081.228572368206</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U24" t="n">
         <v>1853.051068437921</v>
@@ -6107,13 +6107,13 @@
         <v>1617.898960206178</v>
       </c>
       <c r="W24" t="n">
-        <v>1363.661603477976</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X24" t="n">
-        <v>1155.810103272443</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y24" t="n">
-        <v>948.0498045074896</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K25" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
@@ -6186,13 +6186,13 @@
         <v>338.2369225695239</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1263.781575849841</v>
+        <v>171.8928117927844</v>
       </c>
       <c r="C26" t="n">
-        <v>1263.781575849841</v>
+        <v>171.8928117927844</v>
       </c>
       <c r="D26" t="n">
-        <v>1263.781575849841</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9933232515971</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G26" t="n">
         <v>48.81975253256327</v>
@@ -6226,13 +6226,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T26" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U26" t="n">
-        <v>2371.897027894854</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V26" t="n">
-        <v>2040.834140551283</v>
+        <v>1674.866397363912</v>
       </c>
       <c r="W26" t="n">
-        <v>2040.520747889775</v>
+        <v>1322.097742093798</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.520747889775</v>
+        <v>948.6319838327179</v>
       </c>
       <c r="Y26" t="n">
-        <v>1650.381415913963</v>
+        <v>558.4926518569061</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>922.6086434646021</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C27" t="n">
-        <v>748.1556141834751</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D27" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E27" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6305,52 +6305,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1995.825244415101</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V27" t="n">
-        <v>1760.673136183358</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W27" t="n">
-        <v>1506.435779455157</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X27" t="n">
-        <v>1298.584279249624</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y27" t="n">
-        <v>1090.82398048467</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>471.7019867528513</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>321.5853473405156</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>173.6722537581225</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
         <v>48.81975253256327</v>
@@ -6411,25 +6411,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T28" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1236.259021858348</v>
+        <v>2064.405684312583</v>
       </c>
       <c r="C29" t="n">
-        <v>1236.259021858348</v>
+        <v>1695.443167372171</v>
       </c>
       <c r="D29" t="n">
-        <v>877.9933232515971</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2318.1853783007</v>
       </c>
       <c r="T29" t="n">
-        <v>2232.946703092391</v>
+        <v>2318.1853783007</v>
       </c>
       <c r="U29" t="n">
-        <v>1979.167009104273</v>
+        <v>2064.405684312583</v>
       </c>
       <c r="V29" t="n">
-        <v>1979.167009104273</v>
+        <v>2064.405684312583</v>
       </c>
       <c r="W29" t="n">
-        <v>1626.398353834159</v>
+        <v>2064.405684312583</v>
       </c>
       <c r="X29" t="n">
-        <v>1626.398353834159</v>
+        <v>2064.405684312583</v>
       </c>
       <c r="Y29" t="n">
-        <v>1236.259021858348</v>
+        <v>2064.405684312583</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6569,25 +6569,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>49.9726080165797</v>
       </c>
       <c r="G31" t="n">
         <v>48.81975253256327</v>
@@ -6648,25 +6648,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>497.6018825741107</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T31" t="n">
-        <v>497.6018825741107</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U31" t="n">
-        <v>497.6018825741107</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V31" t="n">
-        <v>497.6018825741107</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W31" t="n">
-        <v>497.6018825741107</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X31" t="n">
-        <v>269.6123316760934</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>796.4947224030295</v>
+        <v>691.7117085729224</v>
       </c>
       <c r="C32" t="n">
-        <v>796.4947224030295</v>
+        <v>691.7117085729224</v>
       </c>
       <c r="D32" t="n">
-        <v>796.4947224030295</v>
+        <v>691.7117085729224</v>
       </c>
       <c r="E32" t="n">
-        <v>796.4947224030295</v>
+        <v>305.9234559746781</v>
       </c>
       <c r="F32" t="n">
-        <v>796.4947224030295</v>
+        <v>305.9234559746781</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540048</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S32" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T32" t="n">
-        <v>2371.897027894855</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U32" t="n">
-        <v>2277.762540047614</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V32" t="n">
-        <v>1946.699652704043</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W32" t="n">
-        <v>1946.699652704043</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="X32" t="n">
-        <v>1573.233894442963</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.094562467151</v>
+        <v>1078.311548637044</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>950.3620754742192</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C33" t="n">
-        <v>775.9090461930922</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D33" t="n">
-        <v>626.9746365318409</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E33" t="n">
-        <v>467.7371815263854</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F33" t="n">
-        <v>321.2026235532704</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>183.172736002432</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U33" t="n">
-        <v>2023.578676424718</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V33" t="n">
-        <v>1788.426568192976</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W33" t="n">
-        <v>1534.189211464774</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X33" t="n">
-        <v>1326.337711259241</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y33" t="n">
-        <v>1118.577412494287</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.2314487457803</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="C34" t="n">
-        <v>123.2314487457803</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>123.2314487457803</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>123.2314487457803</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6885,25 +6885,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W34" t="n">
-        <v>351.2209996437976</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X34" t="n">
-        <v>123.2314487457803</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.2314487457803</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1834.439277369932</v>
+        <v>1164.075721085086</v>
       </c>
       <c r="C35" t="n">
-        <v>1565.746325799387</v>
+        <v>795.1132041446742</v>
       </c>
       <c r="D35" t="n">
-        <v>1207.480627192637</v>
+        <v>436.8475055379237</v>
       </c>
       <c r="E35" t="n">
-        <v>1207.480627192637</v>
+        <v>436.8475055379237</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540047</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,7 +6955,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
@@ -6967,22 +6967,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U35" t="n">
-        <v>2187.207932640046</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V35" t="n">
-        <v>2187.207932640046</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="W35" t="n">
-        <v>1834.439277369932</v>
+        <v>1537.541479346166</v>
       </c>
       <c r="X35" t="n">
-        <v>1834.439277369932</v>
+        <v>1164.075721085086</v>
       </c>
       <c r="Y35" t="n">
-        <v>1834.439277369932</v>
+        <v>1164.075721085086</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>922.6086434646021</v>
+        <v>929.9448703088874</v>
       </c>
       <c r="C36" t="n">
-        <v>748.1556141834751</v>
+        <v>755.4918410277604</v>
       </c>
       <c r="D36" t="n">
-        <v>599.2212045222238</v>
+        <v>606.5574313665091</v>
       </c>
       <c r="E36" t="n">
-        <v>439.9837495167684</v>
+        <v>447.3199763610536</v>
       </c>
       <c r="F36" t="n">
-        <v>293.4491915436533</v>
+        <v>300.7854183879386</v>
       </c>
       <c r="G36" t="n">
-        <v>155.4193039928149</v>
+        <v>162.7555308371003</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>56.15597937684856</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K36" t="n">
         <v>285.1110033225004</v>
@@ -7028,40 +7028,40 @@
         <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S36" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V36" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W36" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1090.82398048467</v>
+        <v>1098.160207328955</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="C37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="D37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="E37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="F37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="G37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K37" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7125,22 +7125,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U37" t="n">
-        <v>351.4590821581505</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V37" t="n">
-        <v>351.4590821581505</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="X37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.1684137834047</v>
+        <v>123.4837667669761</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1755.365134694847</v>
+        <v>938.0140410570359</v>
       </c>
       <c r="C38" t="n">
-        <v>1755.365134694847</v>
+        <v>938.0140410570359</v>
       </c>
       <c r="D38" t="n">
-        <v>1755.365134694847</v>
+        <v>938.0140410570359</v>
       </c>
       <c r="E38" t="n">
-        <v>1369.576882096602</v>
+        <v>552.2257884587916</v>
       </c>
       <c r="F38" t="n">
-        <v>958.5909773069948</v>
+        <v>141.2398836691841</v>
       </c>
       <c r="G38" t="n">
-        <v>540.4033113775685</v>
+        <v>141.2398836691841</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>141.2398836691841</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
@@ -7177,16 +7177,16 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
@@ -7204,22 +7204,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>2145.504466670658</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V38" t="n">
-        <v>2145.504466670658</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W38" t="n">
-        <v>2145.504466670658</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X38" t="n">
-        <v>2145.504466670658</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y38" t="n">
-        <v>1755.365134694847</v>
+        <v>1324.613881121158</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>816.0090920043505</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C39" t="n">
-        <v>641.5560627232235</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D39" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E39" t="n">
         <v>333.3841980565167</v>
@@ -7253,13 +7253,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
         <v>1191.758623309281</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="C40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="D40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="E40" t="n">
-        <v>424.5997883913116</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="F40" t="n">
-        <v>277.7098408934012</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G40" t="n">
-        <v>108.6096257168473</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I40" t="n">
         <v>48.81975253256327</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="T40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="U40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="V40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="W40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="X40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
       <c r="Y40" t="n">
-        <v>424.5997883913116</v>
+        <v>505.1817225423517</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1967.593327971733</v>
+        <v>974.3160940599334</v>
       </c>
       <c r="C41" t="n">
-        <v>1967.593327971733</v>
+        <v>974.3160940599334</v>
       </c>
       <c r="D41" t="n">
-        <v>1755.365134694847</v>
+        <v>974.3160940599334</v>
       </c>
       <c r="E41" t="n">
-        <v>1369.576882096602</v>
+        <v>588.5278414616891</v>
       </c>
       <c r="F41" t="n">
-        <v>958.5909773069948</v>
+        <v>588.5278414616891</v>
       </c>
       <c r="G41" t="n">
-        <v>540.4033113775685</v>
+        <v>170.3401755322629</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>170.3401755322629</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697315</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T41" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U41" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V41" t="n">
-        <v>1967.593327971733</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W41" t="n">
-        <v>1967.593327971733</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="X41" t="n">
-        <v>1967.593327971733</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="Y41" t="n">
-        <v>1967.593327971733</v>
+        <v>974.3160940599334</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7529,13 +7529,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>458.9897048505185</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="C43" t="n">
-        <v>458.9897048505185</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D43" t="n">
-        <v>458.9897048505185</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E43" t="n">
-        <v>458.9897048505185</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F43" t="n">
-        <v>458.9897048505185</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G43" t="n">
-        <v>289.8894896739646</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H43" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>582.0880853543904</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="W43" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="X43" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="Y43" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1727.842580703353</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C44" t="n">
-        <v>1727.842580703353</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>1369.576882096602</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>1369.576882096602</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2337.596517347478</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2117.981912679164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U44" t="n">
-        <v>2117.981912679164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V44" t="n">
-        <v>2117.981912679164</v>
+        <v>1650.381415913963</v>
       </c>
       <c r="W44" t="n">
-        <v>2117.981912679164</v>
+        <v>1650.381415913963</v>
       </c>
       <c r="X44" t="n">
-        <v>2117.981912679164</v>
+        <v>1650.381415913963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1727.842580703353</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>882.175553373567</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C45" t="n">
-        <v>707.72252409244</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D45" t="n">
-        <v>558.7881144311888</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E45" t="n">
-        <v>399.5506594257333</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F45" t="n">
-        <v>253.0161014526182</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G45" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H45" t="n">
         <v>114.9862139017798</v>
@@ -7727,25 +7727,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7754,25 +7754,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2280.589895521037</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368206</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U45" t="n">
-        <v>1955.392154324066</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V45" t="n">
-        <v>1720.240046092323</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W45" t="n">
-        <v>1466.002689364122</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X45" t="n">
-        <v>1258.151189158589</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y45" t="n">
-        <v>1050.390890393635</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>192.1083576604066</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>192.1083576604066</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>192.1083576604066</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>192.1083576604066</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>192.1083576604066</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>276.8093034305806</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>276.8093034305806</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V46" t="n">
-        <v>276.8093034305806</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W46" t="n">
-        <v>276.8093034305806</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>192.1083576604066</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>340.482471640322</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,10 +9494,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>203.8252941185861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302593</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617106</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>94.72888660085704</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>434.3429150104481</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>189.0573998439393</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>319.9182068546981</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>101.317675027284</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23469,10 +23469,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>212.3699225553131</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>67.82289173018521</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>60.7561990487161</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>158.6592772154555</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>127.2750392816568</v>
       </c>
       <c r="G15" t="n">
-        <v>106.2795475015858</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>130.9515551368362</v>
       </c>
       <c r="J16" t="n">
         <v>52.22830032617343</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.6672792600264</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>124.6976828872309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>150.5450932668812</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>198.4198312014621</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>82.799494583231</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.78794980767279</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>242.2961383803458</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>311.830255849365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>9.483521051630376</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24183,16 +24183,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V22" t="n">
-        <v>178.234362383534</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.6089409642295</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>275.8824612430841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>141.3464342174083</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>232.8407129530641</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>348.9307099825196</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>92.88627525581299</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>21.81707180962766</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24651,13 +24651,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>139.7249216952741</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>57.89163560904926</v>
       </c>
       <c r="T29" t="n">
-        <v>11.45794432121531</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>39.62607740540716</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>166.2678860956121</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24888,10 +24888,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>72.27207324097114</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>159.4731228624383</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24970,19 +24970,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>158.0487540794677</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>39.6260774054074</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>38.02889906600352</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.68444614652032</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>71.75346877184644</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25125,10 +25125,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>99.26686971616834</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>22.72857026640457</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25207,19 +25207,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>58.24193217968198</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>93.49183893271966</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25365,16 +25365,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>124.8652366455926</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>68.97936252967094</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>176.1320273119361</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>35.81287827175959</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.86276647018312</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>52.22830032617343</v>
@@ -25599,7 +25599,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>79.77611480952967</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>144.5771302765658</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.17007358522288</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>92.88627525581313</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>56.35087579096998</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25836,10 +25836,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>155.913413993448</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.5083560113357</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>10.33612268392136</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>48.05747717687825</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>101.3176750272839</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>25.55349394822346</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26073,10 +26073,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>79.14728043692963</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693892.0830157497</v>
+        <v>693892.0830157496</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693892.0830157496</v>
+        <v>693892.0830157497</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693892.0830157496</v>
+        <v>693892.0830157497</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693892.0830157495</v>
+        <v>693892.0830157496</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693892.0830157497</v>
+        <v>693892.0830157496</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693892.0830157498</v>
+        <v>693892.0830157496</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693892.0830157496</v>
+        <v>693892.0830157497</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693892.0830157497</v>
+        <v>693892.0830157498</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>325370.8721489955</v>
+      </c>
+      <c r="F2" t="n">
         <v>325370.8721489956</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>325370.8721489954</v>
+      </c>
+      <c r="H2" t="n">
         <v>325370.8721489957</v>
-      </c>
-      <c r="G2" t="n">
-        <v>325370.8721489956</v>
-      </c>
-      <c r="H2" t="n">
-        <v>325370.8721489955</v>
       </c>
       <c r="I2" t="n">
         <v>325370.8721489957</v>
       </c>
       <c r="J2" t="n">
-        <v>325370.8721489956</v>
+        <v>325370.8721489954</v>
       </c>
       <c r="K2" t="n">
-        <v>325370.8721489953</v>
+        <v>325370.8721489955</v>
       </c>
       <c r="L2" t="n">
-        <v>325370.8721489957</v>
+        <v>325370.8721489954</v>
       </c>
       <c r="M2" t="n">
         <v>325370.8721489956</v>
@@ -26352,7 +26352,7 @@
         <v>325370.8721489956</v>
       </c>
       <c r="O2" t="n">
-        <v>325370.8721489955</v>
+        <v>325370.8721489956</v>
       </c>
       <c r="P2" t="n">
         <v>325370.8721489956</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109306</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>70728.2873402517</v>
+        <v>70728.28734025169</v>
       </c>
       <c r="F4" t="n">
         <v>70728.28734025169</v>
@@ -26435,10 +26435,10 @@
         <v>70728.28734025169</v>
       </c>
       <c r="H4" t="n">
+        <v>70728.28734025169</v>
+      </c>
+      <c r="I4" t="n">
         <v>70728.2873402517</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70728.28734025169</v>
       </c>
       <c r="J4" t="n">
         <v>70728.2873402517</v>
@@ -26447,19 +26447,19 @@
         <v>70728.28734025169</v>
       </c>
       <c r="L4" t="n">
+        <v>70728.28734025169</v>
+      </c>
+      <c r="M4" t="n">
         <v>70728.2873402517</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>70728.28734025169</v>
-      </c>
-      <c r="N4" t="n">
-        <v>70728.2873402517</v>
       </c>
       <c r="O4" t="n">
         <v>70728.28734025169</v>
       </c>
       <c r="P4" t="n">
-        <v>70728.28734025167</v>
+        <v>70728.28734025169</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="J5" t="n">
         <v>44136.03802033842</v>
@@ -26499,10 +26499,10 @@
         <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="M5" t="n">
         <v>44136.03802033843</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>17508.67291798956</v>
       </c>
       <c r="C6" t="n">
-        <v>98278.10444953735</v>
+        <v>98278.10444953741</v>
       </c>
       <c r="D6" t="n">
-        <v>98278.10444953741</v>
+        <v>98278.10444953723</v>
       </c>
       <c r="E6" t="n">
-        <v>-165897.6769181068</v>
+        <v>-159625.6448017479</v>
       </c>
       <c r="F6" t="n">
-        <v>203537.6222146733</v>
+        <v>209809.6543310323</v>
       </c>
       <c r="G6" t="n">
-        <v>203537.6222146733</v>
+        <v>209809.6543310321</v>
       </c>
       <c r="H6" t="n">
-        <v>203537.6222146731</v>
+        <v>209809.6543310324</v>
       </c>
       <c r="I6" t="n">
-        <v>203537.6222146733</v>
+        <v>209809.6543310323</v>
       </c>
       <c r="J6" t="n">
-        <v>140477.679615567</v>
+        <v>146749.7117319258</v>
       </c>
       <c r="K6" t="n">
-        <v>203537.622214673</v>
+        <v>209809.6543310321</v>
       </c>
       <c r="L6" t="n">
-        <v>203537.6222146733</v>
+        <v>209809.6543310321</v>
       </c>
       <c r="M6" t="n">
-        <v>111523.3769335802</v>
+        <v>117795.4090499392</v>
       </c>
       <c r="N6" t="n">
-        <v>203537.6222146733</v>
+        <v>209809.6543310322</v>
       </c>
       <c r="O6" t="n">
-        <v>203537.6222146731</v>
+        <v>209809.6543310322</v>
       </c>
       <c r="P6" t="n">
-        <v>203537.6222146732</v>
+        <v>209809.6543310322</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="J4" t="n">
         <v>610.2469066570409</v>
@@ -26819,10 +26819,10 @@
         <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="M4" t="n">
         <v>610.246906657041</v>
-      </c>
-      <c r="M4" t="n">
-        <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570409</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>255.9619101194022</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>147.7506855521427</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.0324132209154</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7082848322977</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27697,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>114.9931654587416</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>203.6756636163529</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.0288285387892</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>246.9221439951795</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>181.4898132723032</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>96.26062221659379</v>
       </c>
     </row>
     <row r="10">
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>374.1740901080621</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3322895077443</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q21" t="n">
         <v>158.6748764185921</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891411</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36685,7 +36685,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37165,10 +37165,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P33" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37630,7 +37630,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.39668221774</v>
+        <v>468.0345334781882</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471535</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
